--- a/biology/Botanique/Planctologie/Planctologie.xlsx
+++ b/biology/Botanique/Planctologie/Planctologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La planctologie ou planctonologie est une branche de l'océanographie qui s'intéresse aux organismes vivants en suspension tant dans les océans qu'en eaux douces, repris sous le nom générique de « plancton » et qui, végétal et animal, constituent la base de la chaine alimentaire en milieu aquatique. Les spécialistes de l'étude de ces organismes sont appelés « planctonologistes », « planctologistes » ou « planctologues ».
-On distingue également la palyno-planctologie, qui étudie les microfossiles tant végétaux qu'animaux, dont la taille est comprise entre 500 et 5 μm[1]
+On distingue également la palyno-planctologie, qui étudie les microfossiles tant végétaux qu'animaux, dont la taille est comprise entre 500 et 5 μm
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme, de création récente[2] est dérivé du mot plancton (1893), lui-même tiré de l'allemand plankton (1887) formé par le physiologiste allemand Victor Hensen d'après le grec πλανκτος (planktos), « qui vogue au hasard ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme, de création récente est dérivé du mot plancton (1893), lui-même tiré de l'allemand plankton (1887) formé par le physiologiste allemand Victor Hensen d'après le grec πλανκτος (planktos), « qui vogue au hasard ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Planctologistes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Victor Hensen
 Grethe Rytter Hasle</t>
